--- a/spreadsheets/template.xlsx
+++ b/spreadsheets/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D2F4BF9-DD48-44E8-9F24-C1D81765A128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB35A3D-0A73-4255-9897-2162ABCA8856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="4" xr2:uid="{FF0F59C4-A9DD-4BAB-8433-18F872FB21FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{FF0F59C4-A9DD-4BAB-8433-18F872FB21FE}"/>
   </bookViews>
   <sheets>
     <sheet name="district" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>District Cells</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>-</t>
@@ -646,9 +643,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -667,6 +661,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -717,15 +714,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1057,189 +1046,170 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FD661-2632-4480-B203-F02323474A53}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:D5">
-    <cfRule type="expression" dxfId="0" priority="0">
-      <formula>ISERROR(SEARCH(".",A2))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1260,99 +1230,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1368,478 +1338,466 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-    </row>
-    <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
     </row>
     <row r="14" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
     </row>
     <row r="18" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
     </row>
     <row r="19" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
     </row>
     <row r="20" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
     </row>
     <row r="22" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
     </row>
     <row r="23" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
     </row>
     <row r="24" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
     </row>
     <row r="25" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
     </row>
     <row r="26" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J26" s="6"/>
+      <c r="J26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1872,92 +1830,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B4" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1973,7 +1927,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1984,177 +1938,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="6"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="6"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="4"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2170,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3ACF89-2EB2-48B9-A884-A3492EA8DDFC}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B19" sqref="B18:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2181,99 +2119,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2289,125 +2227,115 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
